--- a/sofaplayer/Serie_A/Udinese_stats.xlsx
+++ b/sofaplayer/Serie_A/Udinese_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL23"/>
+  <dimension ref="A1:DL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,16 +1035,16 @@
         <v>864898</v>
       </c>
       <c r="E2" t="n">
-        <v>6.8684210526316</v>
+        <v>6.885</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>1257</v>
+        <v>1347</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -1053,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7813</v>
+        <v>3.9487</v>
       </c>
       <c r="L2" t="n">
-        <v>251.4</v>
+        <v>269.4</v>
       </c>
       <c r="M2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>11.363636363636</v>
+        <v>10.869565217391</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1101,34 +1101,34 @@
         <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.57602699</v>
+        <v>1.67113329</v>
       </c>
       <c r="AB2" t="n">
-        <v>655</v>
+        <v>716</v>
       </c>
       <c r="AC2" t="n">
         <v>2</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE2" t="n">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="AF2" t="n">
-        <v>80.130293159609</v>
+        <v>79.878048780488</v>
       </c>
       <c r="AG2" t="n">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AH2" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AI2" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="AJ2" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AK2" t="n">
         <v>15</v>
@@ -1137,31 +1137,31 @@
         <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AN2" t="n">
-        <v>27.692307692308</v>
+        <v>27.027027027027</v>
       </c>
       <c r="AO2" t="n">
         <v>4</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AS2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT2" t="n">
         <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>37.735849056604</v>
+        <v>37.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="BB2" t="n">
-        <v>36.082474226804</v>
+        <v>38.709677419355</v>
       </c>
       <c r="BC2" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="BD2" t="n">
-        <v>35.975609756098</v>
+        <v>38.918918918919</v>
       </c>
       <c r="BE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BF2" t="n">
-        <v>36.666666666667</v>
+        <v>37.5</v>
       </c>
       <c r="BG2" t="n">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="BH2" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BI2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BJ2" t="n">
         <v>4</v>
@@ -1221,22 +1221,22 @@
         <v>1</v>
       </c>
       <c r="BO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>130.5</v>
+        <v>137.7</v>
       </c>
       <c r="BR2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS2" t="n">
         <v>7</v>
       </c>
       <c r="BT2" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1254,16 +1254,16 @@
         <v>3</v>
       </c>
       <c r="BZ2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CA2" t="n">
         <v>24</v>
       </c>
       <c r="CB2" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="CC2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CD2" t="n">
         <v>14</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CK2" t="n">
         <v>4</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CS2" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CT2" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="CU2" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="CV2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="DA2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DB2" t="n">
-        <v>84.615384615385</v>
+        <v>76.470588235294</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="DG2" t="n">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>1138856</v>
       </c>
       <c r="E3" t="n">
-        <v>6.7071428571429</v>
+        <v>6.7</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1409,13 +1409,13 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7419</v>
+        <v>0.7948</v>
       </c>
       <c r="L3" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>14.285714285714</v>
+        <v>12.5</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.18101419</v>
+        <v>0.21343839</v>
       </c>
       <c r="AB3" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AC3" t="n">
         <v>2</v>
@@ -1469,22 +1469,22 @@
         <v>5</v>
       </c>
       <c r="AE3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF3" t="n">
-        <v>59.79381443299</v>
+        <v>60.204081632653</v>
       </c>
       <c r="AG3" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH3" t="n">
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>66.666666666667</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
@@ -1517,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="BA3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB3" t="n">
         <v>50</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>49.50495049505</v>
       </c>
       <c r="BC3" t="n">
         <v>15</v>
@@ -1547,13 +1547,13 @@
         <v>44.117647058824</v>
       </c>
       <c r="BE3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BF3" t="n">
-        <v>52.238805970149</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BG3" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BH3" t="n">
         <v>10</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>93.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="BR3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS3" t="n">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CA3" t="n">
         <v>1</v>
@@ -1670,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="CT3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU3" t="n">
         <v>51</v>
@@ -1709,7 +1709,7 @@
         <v>21</v>
       </c>
       <c r="DG3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>796455</v>
       </c>
       <c r="E4" t="n">
-        <v>6.3818181818182</v>
+        <v>6.375</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.08422747999999999</v>
+        <v>0.10167598</v>
       </c>
       <c r="AB4" t="n">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AC4" t="n">
         <v>1</v>
@@ -1825,22 +1825,22 @@
         <v>2</v>
       </c>
       <c r="AE4" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="n">
-        <v>75.51020408163301</v>
+        <v>75.238095238095</v>
       </c>
       <c r="AG4" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK4" t="n">
         <v>2</v>
@@ -1861,16 +1861,16 @@
         <v>2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS4" t="n">
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BB4" t="n">
-        <v>37.5</v>
+        <v>36.585365853659</v>
       </c>
       <c r="BC4" t="n">
         <v>8</v>
       </c>
       <c r="BD4" t="n">
-        <v>29.62962962963</v>
+        <v>26.666666666667</v>
       </c>
       <c r="BE4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BF4" t="n">
-        <v>42.222222222222</v>
+        <v>42.307692307692</v>
       </c>
       <c r="BG4" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="BH4" t="n">
         <v>13</v>
@@ -1918,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="BJ4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK4" t="n">
         <v>0</v>
@@ -1933,22 +1933,22 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>70.2</v>
+        <v>76.5</v>
       </c>
       <c r="BR4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS4" t="n">
         <v>1</v>
       </c>
       <c r="BT4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="CB4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CC4" t="n">
         <v>6</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CK4" t="n">
         <v>1</v>
@@ -2029,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="CU4" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="CV4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="DG4" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>1536811</v>
       </c>
       <c r="E5" t="n">
-        <v>6.475</v>
+        <v>6.4888888888889</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2121,13 +2121,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0534</v>
+        <v>0.1307</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0.01866825</v>
       </c>
       <c r="AB5" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -2184,10 +2184,10 @@
         <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>52.173913043478</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
@@ -2247,28 +2247,28 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
-        <v>45.454545454545</v>
+        <v>47.222222222222</v>
       </c>
       <c r="BC5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD5" t="n">
-        <v>41.176470588235</v>
+        <v>42.105263157895</v>
       </c>
       <c r="BE5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF5" t="n">
-        <v>50</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BG5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BH5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI5" t="n">
         <v>5</v>
@@ -2295,22 +2295,22 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>51.8</v>
+        <v>58.4</v>
       </c>
       <c r="BR5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>2</v>
       </c>
       <c r="CA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB5" t="n">
         <v>3</v>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="CU5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CV5" t="n">
         <v>8</v>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="DB5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="DG5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>1444690</v>
       </c>
       <c r="E7" t="n">
-        <v>6.9368421052632</v>
+        <v>6.925</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="n">
-        <v>1517</v>
+        <v>1607</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -2836,7 +2836,7 @@
         <v>2.3765</v>
       </c>
       <c r="L7" t="n">
-        <v>758.5</v>
+        <v>803.5</v>
       </c>
       <c r="M7" t="n">
         <v>37</v>
@@ -2881,58 +2881,58 @@
         <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.5157858</v>
+        <v>1.6399168</v>
       </c>
       <c r="AB7" t="n">
-        <v>946</v>
+        <v>986</v>
       </c>
       <c r="AC7" t="n">
         <v>4</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE7" t="n">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="AF7" t="n">
-        <v>80.25830258302599</v>
+        <v>80.350877192982</v>
       </c>
       <c r="AG7" t="n">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="AH7" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AI7" t="n">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="AJ7" t="n">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AK7" t="n">
         <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>48.888888888889</v>
+        <v>46.808510638298</v>
       </c>
       <c r="AM7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO7" t="n">
         <v>11</v>
       </c>
-      <c r="AN7" t="n">
-        <v>28.205128205128</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10</v>
-      </c>
       <c r="AP7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>13</v>
       </c>
       <c r="AR7" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AS7" t="n">
         <v>11</v>
@@ -2953,43 +2953,43 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AZ7" t="n">
-        <v>54.320987654321</v>
+        <v>54.878048780488</v>
       </c>
       <c r="BA7" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>46.445497630332</v>
+        <v>46.759259259259</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="BD7" t="n">
-        <v>45</v>
+        <v>45.652173913043</v>
       </c>
       <c r="BE7" t="n">
         <v>17</v>
       </c>
       <c r="BF7" t="n">
-        <v>54.838709677419</v>
+        <v>53.125</v>
       </c>
       <c r="BG7" t="n">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="BH7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BJ7" t="n">
         <v>3</v>
       </c>
       <c r="BK7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL7" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>3</v>
       </c>
       <c r="BO7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>131.8</v>
+        <v>138.5</v>
       </c>
       <c r="BR7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS7" t="n">
         <v>5</v>
       </c>
       <c r="BT7" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>41</v>
       </c>
       <c r="CC7" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CD7" t="n">
         <v>12</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CK7" t="n">
         <v>3</v>
@@ -3088,19 +3088,19 @@
         <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CS7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="CT7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CU7" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="CV7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="DA7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="DB7" t="n">
-        <v>50</v>
+        <v>52.941176470588</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="DG7" t="n">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>825271</v>
       </c>
       <c r="E8" t="n">
-        <v>6.685</v>
+        <v>6.6952380952381</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
         <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>1.7022</v>
       </c>
       <c r="L8" t="n">
-        <v>1062</v>
+        <v>1073</v>
       </c>
       <c r="M8" t="n">
         <v>23</v>
@@ -3237,10 +3237,10 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.41136514</v>
+        <v>0.41219906</v>
       </c>
       <c r="AB8" t="n">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="AC8" t="n">
         <v>1</v>
@@ -3249,19 +3249,19 @@
         <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AF8" t="n">
-        <v>81.761006289308</v>
+        <v>81.538461538462</v>
       </c>
       <c r="AG8" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AH8" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AI8" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AJ8" t="n">
         <v>80</v>
@@ -3282,7 +3282,7 @@
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ8" t="n">
         <v>4</v>
@@ -3309,22 +3309,22 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>35.714285714286</v>
+        <v>37.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="BB8" t="n">
-        <v>56.692913385827</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BC8" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="BD8" t="n">
-        <v>56.989247311828</v>
+        <v>57.575757575758</v>
       </c>
       <c r="BE8" t="n">
         <v>19</v>
@@ -3333,13 +3333,13 @@
         <v>55.882352941176</v>
       </c>
       <c r="BG8" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="BH8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BI8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BJ8" t="n">
         <v>1</v>
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>133.7</v>
+        <v>140.6</v>
       </c>
       <c r="BR8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS8" t="n">
         <v>2</v>
       </c>
       <c r="BT8" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3447,13 +3447,13 @@
         <v>10</v>
       </c>
       <c r="CS8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CT8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CU8" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CV8" t="n">
         <v>15</v>
@@ -3471,10 +3471,10 @@
         <v>23</v>
       </c>
       <c r="DA8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DB8" t="n">
-        <v>46.428571428571</v>
+        <v>46.666666666667</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="DG8" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,16 +3527,16 @@
         <v>1154894</v>
       </c>
       <c r="E9" t="n">
-        <v>6.6454545454545</v>
+        <v>6.6583333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>551</v>
+        <v>616</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2717</v>
+        <v>0.3185</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.20246879</v>
+        <v>0.21988939</v>
       </c>
       <c r="AB9" t="n">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -3605,52 +3605,52 @@
         <v>4</v>
       </c>
       <c r="AE9" t="n">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AF9" t="n">
-        <v>74.647887323944</v>
+        <v>75.75757575757601</v>
       </c>
       <c r="AG9" t="n">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="AH9" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI9" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AJ9" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
-        <v>29.411764705882</v>
+        <v>38.095238095238</v>
       </c>
       <c r="AM9" t="n">
         <v>3</v>
       </c>
       <c r="AN9" t="n">
-        <v>16.666666666667</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>6</v>
       </c>
       <c r="AP9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS9" t="n">
         <v>5</v>
       </c>
       <c r="AT9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU9" t="n">
         <v>2</v>
@@ -3665,22 +3665,22 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
-        <v>66.666666666667</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BA9" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BB9" t="n">
-        <v>53.846153846154</v>
+        <v>54.285714285714</v>
       </c>
       <c r="BC9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BD9" t="n">
-        <v>50</v>
+        <v>50.909090909091</v>
       </c>
       <c r="BE9" t="n">
         <v>10</v>
@@ -3689,76 +3689,76 @@
         <v>66.666666666667</v>
       </c>
       <c r="BG9" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="BH9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>56</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA9" t="n">
         <v>6</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>6</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>11</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>54</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>5</v>
       </c>
       <c r="CB9" t="n">
         <v>7</v>
       </c>
       <c r="CC9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
@@ -3803,13 +3803,13 @@
         <v>4</v>
       </c>
       <c r="CS9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CT9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CU9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CV9" t="n">
         <v>5</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="DA9" t="n">
         <v>8</v>
       </c>
       <c r="DB9" t="n">
-        <v>61.538461538462</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="DG9" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ9" t="n">
         <v>2292016</v>
@@ -3883,16 +3883,16 @@
         <v>904887</v>
       </c>
       <c r="E10" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>1384</v>
+        <v>1463</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -3904,7 +3904,7 @@
         <v>3.1379</v>
       </c>
       <c r="L10" t="n">
-        <v>461.33333333333</v>
+        <v>487.66666666667</v>
       </c>
       <c r="M10" t="n">
         <v>22</v>
@@ -3946,67 +3946,67 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.45515347</v>
+        <v>1.46331443</v>
       </c>
       <c r="AB10" t="n">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="AC10" t="n">
         <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="AF10" t="n">
-        <v>77.07317073170699</v>
+        <v>77.44186046511599</v>
       </c>
       <c r="AG10" t="n">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="AH10" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AI10" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AJ10" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AK10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL10" t="n">
-        <v>20</v>
+        <v>22.727272727273</v>
       </c>
       <c r="AM10" t="n">
         <v>4</v>
       </c>
       <c r="AN10" t="n">
-        <v>17.391304347826</v>
+        <v>16.666666666667</v>
       </c>
       <c r="AO10" t="n">
         <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AQ10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR10" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AS10" t="n">
         <v>5</v>
       </c>
       <c r="AT10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU10" t="n">
         <v>4</v>
@@ -4024,31 +4024,31 @@
         <v>9</v>
       </c>
       <c r="AZ10" t="n">
-        <v>60</v>
+        <v>56.25</v>
       </c>
       <c r="BA10" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BB10" t="n">
-        <v>53.097345132743</v>
+        <v>52.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BD10" t="n">
-        <v>58.823529411765</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BE10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF10" t="n">
-        <v>35.714285714286</v>
+        <v>37.931034482759</v>
       </c>
       <c r="BG10" t="n">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="BH10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI10" t="n">
         <v>12</v>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" t="n">
         <v>0</v>
@@ -4069,22 +4069,22 @@
         <v>1</v>
       </c>
       <c r="BO10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>136.2</v>
+        <v>142.8</v>
       </c>
       <c r="BR10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT10" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4108,13 +4108,13 @@
         <v>14</v>
       </c>
       <c r="CB10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CC10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CD10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CK10" t="n">
         <v>3</v>
@@ -4156,16 +4156,16 @@
         <v>25</v>
       </c>
       <c r="CR10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CS10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CT10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CU10" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="CV10" t="n">
         <v>18</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="DA10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="DB10" t="n">
-        <v>58.620689655172</v>
+        <v>61.290322580645</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,16 +4198,16 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="DG10" t="n">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DJ10" t="n">
         <v>2199460</v>
@@ -4951,16 +4951,16 @@
         <v>227894</v>
       </c>
       <c r="E13" t="n">
-        <v>6.7375</v>
+        <v>6.736</v>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="n">
-        <v>2138</v>
+        <v>2217</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>0.4907</v>
       </c>
       <c r="L13" t="n">
-        <v>2138</v>
+        <v>2217</v>
       </c>
       <c r="M13" t="n">
         <v>13</v>
@@ -5017,40 +5017,40 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.68784629</v>
+        <v>0.76099039</v>
       </c>
       <c r="AB13" t="n">
-        <v>1195</v>
+        <v>1247</v>
       </c>
       <c r="AC13" t="n">
         <v>1</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>732</v>
+        <v>772</v>
       </c>
       <c r="AF13" t="n">
-        <v>80.26315789473701</v>
+        <v>80.50052137643399</v>
       </c>
       <c r="AG13" t="n">
-        <v>912</v>
+        <v>959</v>
       </c>
       <c r="AH13" t="n">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="AI13" t="n">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="AJ13" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AK13" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL13" t="n">
-        <v>35.922330097087</v>
+        <v>37.142857142857</v>
       </c>
       <c r="AM13" t="n">
         <v>1</v>
@@ -5059,7 +5059,7 @@
         <v>11.111111111111</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
         <v>43</v>
@@ -5068,7 +5068,7 @@
         <v>9</v>
       </c>
       <c r="AR13" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AS13" t="n">
         <v>13</v>
@@ -5095,16 +5095,16 @@
         <v>44.444444444444</v>
       </c>
       <c r="BA13" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BB13" t="n">
-        <v>54.166666666667</v>
+        <v>54.117647058824</v>
       </c>
       <c r="BC13" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BD13" t="n">
-        <v>55.11811023622</v>
+        <v>55.038759689922</v>
       </c>
       <c r="BE13" t="n">
         <v>21</v>
@@ -5113,13 +5113,13 @@
         <v>51.219512195122</v>
       </c>
       <c r="BG13" t="n">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="BH13" t="n">
+        <v>24</v>
+      </c>
+      <c r="BI13" t="n">
         <v>23</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>22</v>
       </c>
       <c r="BJ13" t="n">
         <v>1</v>
@@ -5137,22 +5137,22 @@
         <v>5</v>
       </c>
       <c r="BO13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>161.7</v>
+        <v>168.4</v>
       </c>
       <c r="BR13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS13" t="n">
         <v>1</v>
       </c>
       <c r="BT13" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>11</v>
       </c>
       <c r="CC13" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="CD13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CK13" t="n">
         <v>5</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CS13" t="n">
         <v>18</v>
@@ -5233,7 +5233,7 @@
         <v>9</v>
       </c>
       <c r="CU13" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CV13" t="n">
         <v>20</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="DA13" t="n">
         <v>26</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="DG13" t="n">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>1009661</v>
       </c>
       <c r="E15" t="n">
-        <v>6.5545454545455</v>
+        <v>6.5583333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.13558782</v>
+        <v>0.15227742</v>
       </c>
       <c r="AB15" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -5741,22 +5741,22 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AF15" t="n">
-        <v>88</v>
+        <v>89.024390243902</v>
       </c>
       <c r="AG15" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
         <v>2</v>
@@ -5765,10 +5765,10 @@
         <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN15" t="n">
-        <v>16.666666666667</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -5777,16 +5777,16 @@
         <v>2</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU15" t="n">
         <v>1</v>
@@ -5807,25 +5807,25 @@
         <v>50</v>
       </c>
       <c r="BA15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB15" t="n">
-        <v>36.666666666667</v>
+        <v>37.5</v>
       </c>
       <c r="BC15" t="n">
         <v>5</v>
       </c>
       <c r="BD15" t="n">
-        <v>25</v>
+        <v>23.809523809524</v>
       </c>
       <c r="BE15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF15" t="n">
-        <v>60</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BG15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BH15" t="n">
         <v>5</v>
@@ -5855,10 +5855,10 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>72.09999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="BR15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
@@ -5942,10 +5942,10 @@
         <v>2</v>
       </c>
       <c r="CT15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CU15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CV15" t="n">
         <v>4</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="DG15" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6019,40 +6019,40 @@
         <v>892979</v>
       </c>
       <c r="E16" t="n">
-        <v>7.0666666666667</v>
+        <v>7.116</v>
       </c>
       <c r="F16" t="n">
+        <v>25</v>
+      </c>
+      <c r="G16" t="n">
         <v>24</v>
       </c>
-      <c r="G16" t="n">
-        <v>23</v>
-      </c>
       <c r="H16" t="n">
-        <v>2055</v>
+        <v>2141</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2614</v>
+        <v>2.4004</v>
       </c>
       <c r="L16" t="n">
-        <v>1027.5</v>
+        <v>713.66666666667</v>
       </c>
       <c r="M16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
         <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>8.695652173913</v>
+        <v>12</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
         <v>1</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -6085,10 +6085,10 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.54768924</v>
+        <v>1.56178524</v>
       </c>
       <c r="AB16" t="n">
-        <v>1733</v>
+        <v>1808</v>
       </c>
       <c r="AC16" t="n">
         <v>2</v>
@@ -6097,28 +6097,28 @@
         <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>1192</v>
+        <v>1248</v>
       </c>
       <c r="AF16" t="n">
-        <v>88.36174944403299</v>
+        <v>88.385269121813</v>
       </c>
       <c r="AG16" t="n">
-        <v>1349</v>
+        <v>1412</v>
       </c>
       <c r="AH16" t="n">
-        <v>745</v>
+        <v>776</v>
       </c>
       <c r="AI16" t="n">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="AJ16" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AK16" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AL16" t="n">
-        <v>59.89010989011</v>
+        <v>58.854166666667</v>
       </c>
       <c r="AM16" t="n">
         <v>1</v>
@@ -6127,22 +6127,22 @@
         <v>10</v>
       </c>
       <c r="AO16" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP16" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AS16" t="n">
         <v>17</v>
       </c>
       <c r="AT16" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU16" t="n">
         <v>7</v>
@@ -6163,31 +6163,31 @@
         <v>65.625</v>
       </c>
       <c r="BA16" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="BB16" t="n">
-        <v>59.433962264151</v>
+        <v>60.091743119266</v>
       </c>
       <c r="BC16" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="BD16" t="n">
-        <v>59.060402684564</v>
+        <v>59.74025974026</v>
       </c>
       <c r="BE16" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BF16" t="n">
-        <v>60.31746031746</v>
+        <v>60.9375</v>
       </c>
       <c r="BG16" t="n">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="BH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI16" t="n">
         <v>22</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>21</v>
       </c>
       <c r="BJ16" t="n">
         <v>1</v>
@@ -6205,40 +6205,40 @@
         <v>5</v>
       </c>
       <c r="BO16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>169.6</v>
+        <v>177.9</v>
       </c>
       <c r="BR16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT16" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
       </c>
       <c r="BV16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
         <v>13</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>11</v>
       </c>
       <c r="CA16" t="n">
         <v>12</v>
@@ -6247,10 +6247,10 @@
         <v>15</v>
       </c>
       <c r="CC16" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="CD16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CE16" t="n">
         <v>1</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CK16" t="n">
         <v>4</v>
@@ -6301,7 +6301,7 @@
         <v>10</v>
       </c>
       <c r="CU16" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CV16" t="n">
         <v>25</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="DA16" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="DB16" t="n">
-        <v>65.95744680851099</v>
+        <v>66</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="DG16" t="n">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="DH16" t="n">
         <v>56</v>
@@ -6368,47 +6368,45 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Thomas Kristensen</t>
+          <t>Juan Arizala</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1063373</v>
+        <v>1476922</v>
       </c>
       <c r="E17" t="n">
-        <v>6.8071428571429</v>
+        <v>6.9</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1255</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1255</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6420,13 +6418,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -6441,70 +6439,70 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.15295454</v>
+        <v>0.00030614</v>
       </c>
       <c r="AB17" t="n">
-        <v>836</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>3</v>
       </c>
-      <c r="AE17" t="n">
-        <v>524</v>
-      </c>
       <c r="AF17" t="n">
-        <v>84.652665589661</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="n">
-        <v>619</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="n">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="AJ17" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AK17" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>46.969696969697</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
@@ -6513,43 +6511,43 @@
         <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="BB17" t="n">
-        <v>55.46875</v>
+        <v>100</v>
       </c>
       <c r="BC17" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="BD17" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="BE17" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>60.25641025641</v>
+        <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="BH17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6558,31 +6556,31 @@
         <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>95.3</v>
+        <v>6.9</v>
       </c>
       <c r="BR17" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BS17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -6594,19 +6592,19 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CB17" t="n">
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6624,10 +6622,10 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="CK17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -6648,19 +6646,19 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CS17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CT17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CU17" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6672,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="DA17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="DB17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,19 +6688,19 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>373</v>
+        <v>2</v>
       </c>
       <c r="DG17" t="n">
-        <v>246</v>
+        <v>2</v>
       </c>
       <c r="DH17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2175682</v>
+        <v>2676604</v>
       </c>
       <c r="DK17" t="inlineStr">
         <is>
@@ -6724,341 +6722,341 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Jordan Zemura</t>
+          <t>Thomas Kristensen</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>964119</v>
+        <v>1063373</v>
       </c>
       <c r="E18" t="n">
-        <v>6.5916666666667</v>
+        <v>6.7666666666667</v>
       </c>
       <c r="F18" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1345</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3297</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1345</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>16.666666666667</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.15910755</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>898</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>574</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>85.289747399703</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>673</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>389</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>185</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>47.222222222222</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AS18" t="n">
         <v>12</v>
       </c>
-      <c r="G18" t="n">
-        <v>9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>765</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.4649</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="AT18" t="n">
+        <v>115</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>60</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>72</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>54.545454545455</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>47.169811320755</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>47</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>59.493670886076</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>117</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.74108711</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>453</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>147</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>210</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>53</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>94</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>54</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>37.931034482759</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>25.925925925926</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP18" t="n">
+      <c r="BJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>15</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>99</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>42</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>14</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
         <v>18</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>33</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>37</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>39.784946236559</v>
-      </c>
-      <c r="BC18" t="n">
+      <c r="CK18" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>60</v>
+      </c>
+      <c r="CV18" t="n">
         <v>32</v>
       </c>
-      <c r="BD18" t="n">
-        <v>41.558441558442</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>141</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>14</v>
-      </c>
-      <c r="BI18" t="n">
+      <c r="CW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>72</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>8</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>47.058823529412</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>413</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>260</v>
+      </c>
+      <c r="DH18" t="n">
         <v>10</v>
       </c>
-      <c r="BJ18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>12</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>12</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>63</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>8</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>14</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>11</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>7</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>20</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>27</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>56</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>11</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>29</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>11</v>
-      </c>
-      <c r="DB18" t="n">
-        <v>61.111111111111</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>72</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>138</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>0</v>
-      </c>
       <c r="DI18" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="DJ18" t="n">
-        <v>2175720</v>
+        <v>2175682</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7080,185 +7078,185 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nicolò Bertola</t>
+          <t>Jordan Zemura</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1136399</v>
+        <v>964119</v>
       </c>
       <c r="E19" t="n">
-        <v>6.68</v>
+        <v>6.5923076923077</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>855</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4649</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.83362201</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>507</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>69.958847736626</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>243</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>57</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>113</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>69</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>38.235294117647</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>24.137931034483</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>23.809523809524</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>42</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>40.384615384615</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>42.352941176471</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>31.578947368421</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>157</v>
+      </c>
+      <c r="BH19" t="n">
         <v>16</v>
       </c>
-      <c r="H19" t="n">
-        <v>1403</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.5303</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>11</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.6481799</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>903</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>495</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>76.863354037267</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>644</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>321</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>174</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>61</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>36.607142857143</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>56</v>
-      </c>
-      <c r="AS19" t="n">
+      <c r="BI19" t="n">
         <v>10</v>
       </c>
-      <c r="AT19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>74</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>55.223880597015</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>44</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>53.012048192771</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>30</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>58.823529411765</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>197</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>17</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>11</v>
-      </c>
       <c r="BJ19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK19" t="n">
         <v>3</v>
@@ -7270,55 +7268,55 @@
         <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO19" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>133.6</v>
+        <v>85.7</v>
       </c>
       <c r="BR19" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="BS19" t="n">
         <v>1</v>
       </c>
       <c r="BT19" t="n">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
       </c>
       <c r="BV19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BW19" t="n">
         <v>0</v>
       </c>
       <c r="BX19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BZ19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CA19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CB19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CC19" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="CD19" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7336,10 +7334,10 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="CK19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -7360,19 +7358,19 @@
         <v>0</v>
       </c>
       <c r="CR19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CS19" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="CT19" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="CU19" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="CV19" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7384,13 +7382,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="DA19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="DB19" t="n">
-        <v>55.172413793103</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7402,19 +7400,19 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>363</v>
+        <v>80</v>
       </c>
       <c r="DG19" t="n">
-        <v>281</v>
+        <v>163</v>
       </c>
       <c r="DH19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="DI19" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2175716</v>
+        <v>2175720</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7436,47 +7434,47 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Christian Kabasele</t>
+          <t>Nicolò Bertola</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>58351</v>
+        <v>1136399</v>
       </c>
       <c r="E20" t="n">
-        <v>6.7444444444444</v>
+        <v>6.6428571428571</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>1288</v>
+        <v>1493</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8406</v>
+        <v>0.5303</v>
       </c>
       <c r="L20" t="n">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -7488,61 +7486,61 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.05101731</v>
+        <v>0.7109972</v>
       </c>
       <c r="AB20" t="n">
-        <v>653</v>
+        <v>951</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>407</v>
+        <v>519</v>
       </c>
       <c r="AF20" t="n">
-        <v>86.411889596603</v>
+        <v>76.66174298375201</v>
       </c>
       <c r="AG20" t="n">
-        <v>471</v>
+        <v>677</v>
       </c>
       <c r="AH20" t="n">
         <v>333</v>
       </c>
       <c r="AI20" t="n">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="AK20" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>50.724637681159</v>
+        <v>35.964912280702</v>
       </c>
       <c r="AM20" t="n">
         <v>0</v>
@@ -7551,70 +7549,70 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="AS20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
         <v>4</v>
       </c>
-      <c r="AT20" t="n">
-        <v>91</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
       <c r="AZ20" t="n">
-        <v>100</v>
+        <v>30.769230769231</v>
       </c>
       <c r="BA20" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="BB20" t="n">
-        <v>56.034482758621</v>
+        <v>55.072463768116</v>
       </c>
       <c r="BC20" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="BD20" t="n">
-        <v>47.826086956522</v>
+        <v>52.873563218391</v>
       </c>
       <c r="BE20" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="BF20" t="n">
-        <v>61.428571428571</v>
+        <v>58.823529411765</v>
       </c>
       <c r="BG20" t="n">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="BH20" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BI20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK20" t="n">
         <v>3</v>
@@ -7626,151 +7624,151 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO20" t="n">
+        <v>24</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>21</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>158</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>63</v>
+      </c>
+      <c r="CD20" t="n">
         <v>20</v>
       </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>121.4</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>18</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>64</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>20</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>8</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>13</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>8</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>62</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>21</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>114</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>54.838709677419</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>376</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>301</v>
+      </c>
+      <c r="DH20" t="n">
         <v>5</v>
       </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>29</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>14</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>17</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>51</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>27</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>69</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>4</v>
-      </c>
-      <c r="DB20" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="DC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>352</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>119</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>4</v>
-      </c>
       <c r="DI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2342095</v>
+        <v>2175716</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7792,45 +7790,47 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Maduka Okoye</t>
+          <t>Christian Kabasele</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>891656</v>
+        <v>58351</v>
       </c>
       <c r="E21" t="n">
-        <v>6.85625</v>
+        <v>6.7444444444444</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
         <v>16</v>
       </c>
       <c r="H21" t="n">
-        <v>1357</v>
+        <v>1288</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8406</v>
+      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -7842,19 +7842,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -7863,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.04081191</v>
+        <v>0.05101731</v>
       </c>
       <c r="AB21" t="n">
-        <v>603</v>
+        <v>653</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7875,28 +7875,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>306</v>
+        <v>407</v>
       </c>
       <c r="AF21" t="n">
-        <v>63.617463617464</v>
+        <v>86.411889596603</v>
       </c>
       <c r="AG21" t="n">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="AH21" t="n">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="AI21" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="AL21" t="n">
-        <v>38.790035587189</v>
+        <v>50.724637681159</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7905,103 +7905,103 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT21" t="n">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="AU21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA21" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="BB21" t="n">
-        <v>75</v>
+        <v>56.034482758621</v>
       </c>
       <c r="BC21" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="BD21" t="n">
-        <v>33.333333333333</v>
+        <v>47.826086956522</v>
       </c>
       <c r="BE21" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="BF21" t="n">
-        <v>100</v>
+        <v>61.428571428571</v>
       </c>
       <c r="BG21" t="n">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="BH21" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="BI21" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BO21" t="n">
         <v>20</v>
       </c>
       <c r="BP21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>109.7</v>
+        <v>121.4</v>
       </c>
       <c r="BR21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BS21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT21" t="n">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="BU21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV21" t="n">
         <v>0</v>
@@ -8016,19 +8016,19 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CA21" t="n">
         <v>0</v>
       </c>
       <c r="CB21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC21" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="CD21" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8037,13 +8037,13 @@
         <v>0</v>
       </c>
       <c r="CG21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CH21" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="CI21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="CJ21" t="n">
         <v>17</v>
@@ -8052,19 +8052,19 @@
         <v>3</v>
       </c>
       <c r="CL21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CM21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CN21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CO21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CP21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CQ21" t="n">
         <v>0</v>
@@ -8073,16 +8073,16 @@
         <v>1</v>
       </c>
       <c r="CS21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT21" t="n">
         <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="CV21" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8094,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="DA21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DB21" t="n">
-        <v>0</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8109,31 +8109,29 @@
         <v>0</v>
       </c>
       <c r="DE21" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>254</v>
+        <v>352</v>
       </c>
       <c r="DG21" t="n">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="DH21" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="DI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2380607</v>
+        <v>2342095</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL21" t="n">
-        <v>2.6486</v>
-      </c>
+      <c r="DL21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8148,26 +8146,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Răzvan Sava</t>
+          <t>Maduka Okoye</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1001997</v>
+        <v>891656</v>
       </c>
       <c r="E22" t="n">
-        <v>6.6714285714286</v>
+        <v>6.8941176470588</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
-        <v>619</v>
+        <v>1447</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -8219,268 +8217,268 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.00850746</v>
+        <v>0.04290207</v>
       </c>
       <c r="AB22" t="n">
-        <v>222</v>
+        <v>646</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>129</v>
+        <v>333</v>
       </c>
       <c r="AF22" t="n">
+        <v>64.53488372093</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>516</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>238</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>117</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>39.527027027027</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>118</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>77.777777777778</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>184</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>45</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>22</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>17</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>183</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>45</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>30</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>5</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>30</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>14</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>9</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>6</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>296</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>276</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>240</v>
+      </c>
+      <c r="DH22" t="n">
         <v>75</v>
       </c>
-      <c r="AG22" t="n">
-        <v>172</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>112</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>32.258064516129</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>44</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>14</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>14</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>43</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>7</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>5</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>2</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>62</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>3</v>
-      </c>
-      <c r="DF22" t="n">
-        <v>120</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>52</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>38</v>
-      </c>
       <c r="DI22" t="n">
         <v>0</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2175686</v>
+        <v>2380607</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8488,7 +8486,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>-3.8637</v>
+        <v>3.0111</v>
       </c>
     </row>
     <row r="23">
@@ -8504,23 +8502,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Daniele Padelli</t>
+          <t>Răzvan Sava</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2899</v>
+        <v>1001997</v>
       </c>
       <c r="E23" t="n">
-        <v>6.85</v>
+        <v>6.6714285714286</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>180</v>
+        <v>619</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8575,275 +8573,631 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
+        <v>0.00850746</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>222</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>129</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>172</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>112</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>32.258064516129</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>44</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>43</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>5</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>62</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>3</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>120</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>52</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>38</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>2175686</v>
+      </c>
+      <c r="DK23" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="DL23" t="n">
+        <v>-3.8637</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Serie_A</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Daniele Padelli</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2899</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>180</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
         <v>0.00047204</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AB24" t="n">
         <v>76</v>
       </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
         <v>42</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AF24" t="n">
         <v>66.666666666667</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AG24" t="n">
         <v>63</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AH24" t="n">
         <v>40</v>
       </c>
-      <c r="AI23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AI24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
         <v>7</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AL24" t="n">
         <v>25</v>
       </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
         <v>17</v>
       </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG23" t="n">
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
         <v>21</v>
       </c>
-      <c r="BH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
         <v>3</v>
       </c>
-      <c r="BN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
+      <c r="BN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
         <v>13.7</v>
       </c>
-      <c r="BR23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT23" t="n">
+      <c r="BR24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
         <v>21</v>
       </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
         <v>28</v>
       </c>
-      <c r="DA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE23" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF23" t="n">
+      <c r="DA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF24" t="n">
         <v>44</v>
       </c>
-      <c r="DG23" t="n">
+      <c r="DG24" t="n">
         <v>19</v>
       </c>
-      <c r="DH23" t="n">
+      <c r="DH24" t="n">
         <v>8</v>
       </c>
-      <c r="DI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ23" t="n">
+      <c r="DI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ24" t="n">
         <v>2551276</v>
       </c>
-      <c r="DK23" t="inlineStr">
+      <c r="DK24" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL23" t="n">
+      <c r="DL24" t="n">
         <v>-0.5608</v>
       </c>
     </row>
